--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\indst\CtIEPpUESoS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/indst/ctieppuesos/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F025AA26-B802-8B45-A9BC-89A5DC07D314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,7 @@
     <sheet name="fuel type shifting" sheetId="5" r:id="rId4"/>
     <sheet name="CtIEPpUESoS" sheetId="3" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gabe Mantegna</author>
   </authors>
   <commentList>
-    <comment ref="C43" authorId="0" shapeId="0">
+    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -469,7 +467,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -673,7 +671,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -748,19 +746,20 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Body: normal cell" xfId="6"/>
+    <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="4"/>
-    <cellStyle name="Footnotes: top row" xfId="8"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Parent row" xfId="7"/>
+    <cellStyle name="Parent row" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
-    <cellStyle name="Table title" xfId="3"/>
+    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -828,79 +827,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Electricity Decarbonization"/>
-      <sheetName val="Industry Elec. - Boilers"/>
-      <sheetName val="Industry Elec. - Process Heat"/>
-      <sheetName val="Industry CCS - Process Heat"/>
-      <sheetName val="Industry Hydrogen &amp; SNG"/>
-      <sheetName val="MDV &amp; HDV Decarbonization"/>
-      <sheetName val="DAC &amp; BECCS"/>
-      <sheetName val="Fuel Costs - PATHWAYS"/>
-      <sheetName val="Emission Factors - PATHWAYS"/>
-      <sheetName val="Constants"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="19">
-          <cell r="E19">
-            <v>5.6539999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="7">
-          <cell r="E7">
-            <v>1.7765038912431299</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>50.07</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="5">
-          <cell r="D5">
-            <v>1055.06</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>3600000</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>229.59399999999999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>251.107</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,6 +905,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1014,6 +957,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1189,24 +1149,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="81.7109375" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="40">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,201 +1177,201 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" s="25"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
     </row>
-    <row r="33" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
         <v>0.98699999999999999</v>
       </c>
@@ -1416,7 +1379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26">
         <v>1.0549999999999999</v>
       </c>
@@ -1424,16 +1387,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="B21" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
@@ -1441,25 +1404,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1467,22 +1430,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1490,12 +1453,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1509,7 +1472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1524,7 +1487,7 @@
         <v>0.36555607695917408</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1539,7 +1502,7 @@
         <v>0.49267566948958574</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1554,7 +1517,7 @@
         <v>0.61937990072656646</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1565,25 +1528,25 @@
         <v>0.49253721572510872</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <f>2.93*10^-4</f>
         <v>2.9300000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <f>D14*A17</f>
         <v>1.4431340420745687E-4</v>
@@ -1591,42 +1554,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1635,7 +1598,7 @@
         <v>2400000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1644,83 +1607,83 @@
         <v>2300000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>34</v>
       </c>
@@ -1729,7 +1692,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>64</v>
       </c>
@@ -1743,7 +1706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1762,7 +1725,7 @@
         <v>54807017543.85965</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1781,13 +1744,13 @@
         <v>12456140350.877192</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="5"/>
       <c r="C27" s="18"/>
       <c r="D27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>54</v>
       </c>
@@ -1795,7 +1758,7 @@
       <c r="C28" s="18"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1806,7 +1769,7 @@
       <c r="C29" s="18"/>
       <c r="D29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1825,45 +1788,45 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
     </row>
-    <row r="6" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>86</v>
       </c>
@@ -1874,7 +1837,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>104</v>
       </c>
@@ -1885,7 +1848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>106</v>
       </c>
@@ -1896,7 +1859,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>107</v>
       </c>
@@ -1904,12 +1867,11 @@
         <v>108</v>
       </c>
       <c r="C10" s="33">
-        <f>'[1]Fuel Costs - PATHWAYS'!$E$19*([1]Constants!$C$33/[1]Constants!$C$27)*[1]Constants!$D$5/1000</f>
         <v>6.5242598122280206</v>
       </c>
       <c r="D10" s="38"/>
     </row>
-    <row r="11" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>120</v>
       </c>
@@ -1917,11 +1879,10 @@
         <v>121</v>
       </c>
       <c r="C11" s="39">
-        <f>'[1]Emission Factors - PATHWAYS'!$E$7/10^9*[1]Constants!$D$6</f>
         <v>6.3954140084752677E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>122</v>
       </c>
@@ -1929,17 +1890,16 @@
         <v>123</v>
       </c>
       <c r="C12" s="39">
-        <f>'[1]Emission Factors - PATHWAYS'!$E$19*([1]Constants!$D$5/1000)</f>
         <v>52.826854199999993</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>86</v>
       </c>
@@ -1953,7 +1913,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>81</v>
       </c>
@@ -1967,7 +1927,7 @@
         <v>87540</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>83</v>
       </c>
@@ -1981,7 +1941,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>84</v>
       </c>
@@ -1995,7 +1955,7 @@
         <v>3.3475000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
         <v>91</v>
       </c>
@@ -2009,7 +1969,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>93</v>
       </c>
@@ -2025,32 +1985,32 @@
         <v>17674.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="25"/>
       <c r="C21" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <f>C16/(C20*10^6)</f>
         <v>3.047276348247222E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>102</v>
       </c>
@@ -2058,7 +2018,7 @@
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
         <v>86</v>
       </c>
@@ -2070,7 +2030,7 @@
       </c>
       <c r="D30" s="25"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>104</v>
       </c>
@@ -2082,7 +2042,7 @@
       </c>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
         <v>106</v>
       </c>
@@ -2094,7 +2054,7 @@
       </c>
       <c r="D32" s="25"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
         <v>107</v>
       </c>
@@ -2102,12 +2062,11 @@
         <v>108</v>
       </c>
       <c r="C33" s="33">
-        <f>'[1]Fuel Costs - PATHWAYS'!$E$19*([1]Constants!$C$33/[1]Constants!$C$27)*[1]Constants!$D$5/1000</f>
         <v>6.5242598122280206</v>
       </c>
       <c r="D33" s="25"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
         <v>109</v>
       </c>
@@ -2119,7 +2078,7 @@
       </c>
       <c r="D34" s="25"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
         <v>110</v>
       </c>
@@ -2131,7 +2090,7 @@
       </c>
       <c r="D35" s="25"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
         <v>111</v>
       </c>
@@ -2143,7 +2102,7 @@
       </c>
       <c r="D36" s="25"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>112</v>
       </c>
@@ -2155,7 +2114,7 @@
       </c>
       <c r="D37" s="25"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
         <v>113</v>
       </c>
@@ -2167,13 +2126,13 @@
       </c>
       <c r="D38" s="25"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -2181,7 +2140,7 @@
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
         <v>86</v>
       </c>
@@ -2195,7 +2154,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
         <v>117</v>
       </c>
@@ -2209,7 +2168,7 @@
         <v>87540</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>118</v>
       </c>
@@ -2224,7 +2183,7 @@
         <v>87540</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>119</v>
       </c>
@@ -2239,7 +2198,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
         <v>84</v>
       </c>
@@ -2253,7 +2212,7 @@
         <v>3.3475000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="31" t="s">
         <v>91</v>
       </c>
@@ -2267,7 +2226,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
         <v>93</v>
       </c>
@@ -2283,12 +2242,12 @@
         <v>17674.8</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <f>AVERAGE(C43:D43)/(AVERAGE(C47:D47)*10^6)</f>
         <v>6.1910177201439334E-6</v>
@@ -2301,23 +2260,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -2421,7 +2380,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2558,7 +2517,7 @@
         <v>1.4243732995275992E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2694,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2831,7 +2790,7 @@
         <v>2.4092251461988303E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2968,7 +2927,7 @@
         <v>5.7135774218154072E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -3105,7 +3064,7 @@
         <v>4.8732001210763347E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>

--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/indst/ctieppuesos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/ctieppuesos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F025AA26-B802-8B45-A9BC-89A5DC07D314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF503CF9-AFA9-FA48-A697-C4052A0453DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
